--- a/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
+++ b/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,14 +443,22 @@
           <t>id</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FIELD_A</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>A1.1</t>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MATCH A1</t>
         </is>
       </c>
     </row>
@@ -458,9 +466,12 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>A1.1</t>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MATCH A1</t>
         </is>
       </c>
     </row>
@@ -475,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +500,22 @@
           <t>ID</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>FIELD_B</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>B.1</t>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aaaa</t>
         </is>
       </c>
     </row>
@@ -504,9 +523,25 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>B.2</t>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>bbbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cccc</t>
         </is>
       </c>
     </row>

--- a/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
+++ b/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,38 +438,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>FIELD_A</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>MATCH A1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>MATCH A1</t>
         </is>
@@ -486,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,51 +489,42 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>FIELD_B</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>aaaa</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
+      <c r="A3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>bbbb</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>cccc</t>
         </is>
@@ -551,6 +536,77 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>C1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>D.1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>one</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>D.2</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>two</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -565,172 +621,77 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>first</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>last</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="n">
+        <v>100</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Peter</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Venkman</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="n">
+        <v>101</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>Ray</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Stantz</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="n">
+        <v>102</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D.1</t>
+          <t>Egon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>Spengler</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>103</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D.2</t>
+          <t>Winston</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>two</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>first</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>last</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Peter</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Venkman</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>101</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Ray</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Stantz</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>102</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Egon</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Spengler</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>103</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Winston</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Zeddemore</t>
         </is>
@@ -747,7 +708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,57 +717,59 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>CREATED</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>CREATED</t>
+          <t>CREATED_raw</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>CREATED_raw</t>
+          <t>MODIFIED</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MODIFIED</t>
+          <t>MODIFIED_raw</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MODIFIED_raw</t>
+          <t>TOUCHED</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>TOUCHED</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>TOUCHED_raw</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A2.1</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A2.1</t>
+          <t>1971-01-01 00:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -816,40 +779,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1971-01-01 00:00:00</t>
+          <t>Jan 02, 1971</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jan 02, 1971</t>
+          <t>1971-01-02 00:00:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1971-01-02 00:00:00</t>
+          <t>1979-01-03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1979-01-03</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
           <t>1979-01-03 00:00:00</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>A2.2</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A2.2</t>
+          <t>1980-02-14 00:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -859,25 +819,20 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1980-02-14 00:00:00</t>
+          <t>Mar 17, 1980</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mar 17, 1980</t>
+          <t>1980-03-17 00:00:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1980-03-17 00:00:00</t>
+          <t>1999-12-31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>1999-12-31</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
         <is>
           <t>1999-12-31 00:00:00</t>
         </is>

--- a/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
+++ b/src/yarm/tests_data/test_validate_complete_config_valid/OUTPUT/tables.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FIELD_A</t>
+          <t>COLUMN_A</t>
         </is>
       </c>
     </row>
@@ -496,7 +496,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>FIELD_B</t>
+          <t>COLUMN_B</t>
         </is>
       </c>
     </row>
@@ -749,12 +749,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>TOUCHED</t>
+          <t>TOUCHED UP</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>TOUCHED_raw</t>
+          <t>TOUCHED UP_raw</t>
         </is>
       </c>
     </row>
